--- a/userstorycivil.xlsx
+++ b/userstorycivil.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">USERSTORIES (Civil Supply distribution system) </t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ADD/REMOVE NEW RATIONSHOP</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -158,11 +161,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,188 +487,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A16:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
